--- a/excel2json-master/Blocks.xlsx
+++ b/excel2json-master/Blocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TetriStair\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D337BF8A-5AC1-44FD-B3CA-90C362B750BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855B76E1-54B6-4792-8E68-EAA80595F9FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="1380" windowWidth="24435" windowHeight="13245" xr2:uid="{9E2EF109-089A-47C1-8946-F8BB7E99E547}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4359F6-9B40-4507-A47F-B6A6F979B6BB}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B146" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/excel2json-master/Blocks.xlsx
+++ b/excel2json-master/Blocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TetriStair\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855B76E1-54B6-4792-8E68-EAA80595F9FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E7C4BA-4E47-4594-AAC8-D4200E0FD740}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="1380" windowWidth="24435" windowHeight="13245" xr2:uid="{9E2EF109-089A-47C1-8946-F8BB7E99E547}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>Rotation</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>#Blocks[{}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -461,8 +465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4359F6-9B40-4507-A47F-B6A6F979B6BB}">
   <dimension ref="A3:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B146" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -634,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -652,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -670,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -688,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -706,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -724,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -742,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -760,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -778,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -796,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
@@ -814,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -832,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -850,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -868,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -886,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -904,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
@@ -922,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
@@ -1213,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1"/>
     </row>
@@ -1339,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="1"/>
     </row>
@@ -2500,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D112" s="4">
         <v>0</v>
@@ -2518,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D113" s="4">
         <v>0</v>
@@ -2536,7 +2541,7 @@
         <v>4</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2554,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2572,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D116" s="4">
         <v>2</v>
@@ -2590,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D117" s="4">
         <v>2</v>
@@ -2608,7 +2613,7 @@
         <v>4</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D118" s="4">
         <v>0</v>
@@ -2626,7 +2631,7 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D119" s="4">
         <v>0</v>
@@ -2644,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2662,7 +2667,7 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2680,7 +2685,7 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122" s="4">
         <v>2</v>
@@ -2698,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123" s="4">
         <v>2</v>
@@ -2944,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136" s="4">
         <v>0</v>
@@ -2962,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D137" s="4">
         <v>0</v>
@@ -2980,7 +2985,7 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D138" s="4">
         <v>1</v>
@@ -2998,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D139" s="4">
         <v>1</v>
@@ -3016,7 +3021,7 @@
         <v>5</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D140" s="4">
         <v>2</v>
@@ -3034,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141" s="4">
         <v>2</v>
@@ -3052,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D142" s="4">
         <v>0</v>
@@ -3070,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D143" s="4">
         <v>0</v>
@@ -3088,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144" s="4">
         <v>1</v>
@@ -3106,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145" s="4">
         <v>1</v>
@@ -3124,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" s="4">
         <v>2</v>
@@ -3142,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" s="4">
         <v>2</v>
@@ -3180,6 +3185,9 @@
       <c r="J148" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="K148" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="M148" s="1"/>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.3">
@@ -3385,7 +3393,7 @@
         <v>6</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D160" s="4">
         <v>0</v>
@@ -3403,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D161" s="4">
         <v>0</v>
@@ -3421,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D162" s="4">
         <v>1</v>
@@ -3439,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" s="4">
         <v>1</v>
@@ -3457,7 +3465,7 @@
         <v>6</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D164" s="4">
         <v>2</v>
@@ -3475,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D165" s="4">
         <v>2</v>
@@ -3493,7 +3501,7 @@
         <v>6</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D166" s="4">
         <v>0</v>
@@ -3511,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D167" s="4">
         <v>0</v>
@@ -3529,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D168" s="4">
         <v>1</v>
@@ -3547,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D169" s="4">
         <v>1</v>
@@ -3565,7 +3573,7 @@
         <v>6</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170" s="4">
         <v>2</v>
@@ -3583,7 +3591,7 @@
         <v>6</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D171" s="4">
         <v>2</v>

--- a/excel2json-master/Blocks.xlsx
+++ b/excel2json-master/Blocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TetriStair\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E7C4BA-4E47-4594-AAC8-D4200E0FD740}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E70082-4A05-471B-BF2B-678F6115B813}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="1380" windowWidth="24435" windowHeight="13245" xr2:uid="{9E2EF109-089A-47C1-8946-F8BB7E99E547}"/>
   </bookViews>
@@ -466,8 +466,8 @@
   <dimension ref="A3:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="3" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>4</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M150" s="1"/>
     </row>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M152" s="1"/>
     </row>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M160" s="1"/>
     </row>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M162" s="1"/>
     </row>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M164" s="1"/>
     </row>
